--- a/CM/tools_mccf.xlsx
+++ b/CM/tools_mccf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="532">
   <si>
     <t xml:space="preserve">TRM Version </t>
   </si>
@@ -1594,12 +1594,42 @@
   <si>
     <t>Submitted to TRM 11/17</t>
   </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Apache 2.0</t>
+  </si>
+  <si>
+    <t>MIT License</t>
+  </si>
+  <si>
+    <t>MIT license</t>
+  </si>
+  <si>
+    <t>GNU GPL v 3.0</t>
+  </si>
+  <si>
+    <t>MPL 2.0</t>
+  </si>
+  <si>
+    <t>Archived</t>
+  </si>
+  <si>
+    <t>BSD 3-clause</t>
+  </si>
+  <si>
+    <t>4.6,4.7.x</t>
+  </si>
+  <si>
+    <t>EPL 2.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,13 +1645,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1633,10 +1677,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1657,8 +1702,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1971,72 +2030,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="2" max="3" width="16.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>519</v>
       </c>
@@ -2048,218 +2109,220 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>8242</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>42545</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>43038</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>6706</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>42549</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>43038</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>1.7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>8256</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>42545</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>43035</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>8033</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>43056</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>43045</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>43084</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>8947</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>42838</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>43059</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>42962</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>37</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>516</v>
       </c>
@@ -2267,3605 +2330,3675 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>518</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="4">
         <v>8870</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>42888</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>42892</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>43</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>44</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6">
         <v>43033</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>43035</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>291</v>
       </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>319</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="4">
         <v>11153</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>42944</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>42949</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
         <v>322</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>323</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="4">
         <v>2.4</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>7842</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>42888</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>43011</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>157</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>158</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>337</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="6">
         <v>43033</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
         <v>339</v>
       </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>8196</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <v>43033</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>43035</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
         <v>175</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>176</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>160</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="4">
+      <c r="H19" s="4">
         <v>5009</v>
       </c>
-      <c r="G19" s="6">
+      <c r="I19" s="6">
         <v>42905</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
         <v>43011</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
         <v>162</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>163</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="10">
         <v>5451</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="11">
         <v>42780</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="11">
         <v>54013</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="11">
         <v>43084</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="10">
         <v>11328</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="11">
         <v>42989</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="11">
         <v>42990</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="11">
         <v>42962</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>349</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>7721</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <v>42828</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>43055</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <v>43040</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>352</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>353</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>11518</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <v>42985</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>43035</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>42993</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>191</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>192</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>100</v>
+      <c r="C24" s="8" t="s">
+        <v>527</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="4">
         <v>11334</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <v>42989</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>42990</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>42962</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>101</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>102</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>140</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>7795</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <v>42907</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>43000</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
         <v>143</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>144</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>136</v>
+      <c r="C26" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>8183</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <v>42949</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>43000</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="J26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
         <v>137</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>138</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
         <v>7</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="10">
         <v>6460</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="11">
         <v>43042</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="11">
         <v>43052</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="J27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>424</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>10221</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <v>42703</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>42793</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="J28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
         <v>426</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>427</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>32163</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="H29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="6">
         <v>43055</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>342</v>
       </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
       <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>391</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C30" s="4">
-        <v>59</v>
-      </c>
       <c r="D30" s="4">
         <v>59</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="4">
+        <v>59</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>6515</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <v>43007</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>43038</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="J30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
         <v>393</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>394</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>378</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>66</v>
+      <c r="C31" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="4">
+        <v>66</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="4">
         <v>11175</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <v>42944</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>42992</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="J31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
         <v>379</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>380</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E32" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>10276</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <v>42704</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>42872</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="J32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
         <v>61</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>62</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>465</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>11520</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <v>43033</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>43038</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="J33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
         <v>467</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>468</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>277</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>8967</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <v>42717</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <v>43084</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>280</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>281</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>325</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D35" s="4">
         <v>2.8</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>32164</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="H35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="6">
         <v>43033</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>326</v>
       </c>
-      <c r="K35" t="s">
-        <v>17</v>
-      </c>
       <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>178</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D36" s="4">
         <v>6.4</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>5003</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <v>43033</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>43035</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="J36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
         <v>180</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>181</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>344</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D37" s="4">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="4">
+        <v>530</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="4">
         <v>6316</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <v>42691</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>43055</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>43003</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>346</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>347</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>205</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>7305</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <v>42794</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>43038</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>42962</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>208</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>209</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>254</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>32159</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="H39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="6">
         <v>43045</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>43084</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>255</v>
       </c>
-      <c r="K39" t="s">
-        <v>17</v>
-      </c>
       <c r="L39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>10913</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <v>42893</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>42899</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>83</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>84</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>480</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>3.1</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>8931</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <v>42717</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <v>43038</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="J41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
         <v>481</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>482</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>248</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>32160</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="H42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="6">
         <v>43045</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>43084</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>252</v>
       </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
       <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>7729</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <v>42704</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <v>42793</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="J43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
         <v>56</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>57</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>10342</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <v>42712</v>
       </c>
-      <c r="H44" s="6">
+      <c r="I44" s="6">
         <v>43038</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <v>42962</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>219</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>220</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>328</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="6">
         <v>43033</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="J45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
         <v>330</v>
       </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
       <c r="L45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>313</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>2.11</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>6396</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <v>42712</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>42793</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="J46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
         <v>316</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>317</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>197</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>5618</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <v>42697</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>43038</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="J47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
         <v>201</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>202</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D48" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>7348</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <v>42697</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <v>42991</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="J48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
         <v>126</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>127</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>9262</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <v>42684</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>42809</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="J49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
         <v>50</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>51</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>233</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>8162</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <v>42883</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <v>43039</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>236</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>237</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>332</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <v>32161</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="6">
+      <c r="H51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="6">
         <v>43045</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>43084</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>335</v>
       </c>
-      <c r="K51" t="s">
-        <v>17</v>
-      </c>
       <c r="L51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>439</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C52" s="4">
-        <v>17.100000000000001</v>
-      </c>
       <c r="D52" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>6429</v>
       </c>
-      <c r="G52" s="6">
+      <c r="H52" s="6">
         <v>42852</v>
       </c>
-      <c r="H52" s="6">
+      <c r="I52" s="6">
         <v>42898</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="J52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
         <v>440</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>441</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>387</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="6">
         <v>43033</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="J53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
         <v>389</v>
       </c>
-      <c r="K53" t="s">
-        <v>17</v>
-      </c>
       <c r="L53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>447</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>448</v>
-      </c>
       <c r="D54" s="4" t="s">
         <v>448</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>8</v>
       </c>
-      <c r="G54" s="6">
+      <c r="H54" s="6">
         <v>42905</v>
       </c>
-      <c r="H54" s="6">
+      <c r="I54" s="6">
         <v>42990</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="J54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
         <v>449</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>450</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D55" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>11329</v>
       </c>
-      <c r="G55" s="6">
+      <c r="H55" s="6">
         <v>42989</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>42990</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>42962</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>111</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>112</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>511</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>6397</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <v>42691</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="6">
         <v>43055</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="J56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
         <v>513</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>514</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>183</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>11497</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="6">
         <v>43033</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="6">
         <v>43035</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="J57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
         <v>186</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>187</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>11176</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H58" s="6">
         <v>42944</v>
       </c>
-      <c r="H58" s="6">
+      <c r="I58" s="6">
         <v>42949</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="J58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
         <v>89</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>90</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>414</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C59" s="4">
-        <v>4.12</v>
-      </c>
       <c r="D59" s="4">
         <v>4.12</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>38</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <v>42941</v>
-      </c>
-      <c r="H59" s="6">
-        <v>43056</v>
       </c>
       <c r="I59" s="6">
         <v>43056</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="6">
+        <v>43056</v>
+      </c>
+      <c r="K59" t="s">
         <v>415</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>416</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>368</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>11181</v>
       </c>
-      <c r="G60" s="6">
+      <c r="H60" s="6">
         <v>42944</v>
       </c>
-      <c r="H60" s="6">
+      <c r="I60" s="6">
         <v>42949</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="J60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
         <v>370</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>371</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>452</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D61" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>8882</v>
       </c>
-      <c r="G61" s="6">
+      <c r="H61" s="6">
         <v>42579</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
         <v>453</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>454</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>228</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>7402</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <v>42888</v>
       </c>
-      <c r="H62" s="6">
+      <c r="I62" s="6">
         <v>43038</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>42962</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>230</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>231</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>401</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>2.8</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>6710</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <v>42620</v>
       </c>
-      <c r="H63" s="6">
+      <c r="I63" s="6">
         <v>43038</v>
       </c>
-      <c r="I63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="J63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
         <v>403</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>404</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>355</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>1101</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <v>42697</v>
       </c>
-      <c r="H64" s="6">
+      <c r="I64" s="6">
         <v>43056</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>358</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>359</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>498</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>8248</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <v>42888</v>
       </c>
-      <c r="H65" s="6">
+      <c r="I65" s="6">
         <v>43045</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>500</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>501</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>361</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <v>11126</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <v>42941</v>
       </c>
-      <c r="H66" s="6">
+      <c r="I66" s="6">
         <v>42885</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="J66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" t="s">
         <v>365</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>366</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>373</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <v>11174</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <v>42944</v>
       </c>
-      <c r="H67" s="6">
+      <c r="I67" s="6">
         <v>42949</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="J67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
         <v>375</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>376</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D68" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>8249</v>
       </c>
-      <c r="G68" s="6">
+      <c r="H68" s="6">
         <v>42965</v>
       </c>
-      <c r="H68" s="6">
+      <c r="I68" s="6">
         <v>43011</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="J68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" t="s">
         <v>147</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>148</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>222</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="4">
+      <c r="D69" s="4">
         <v>3.4</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <v>6379</v>
       </c>
-      <c r="G69" s="6">
+      <c r="H69" s="6">
         <v>43033</v>
       </c>
-      <c r="H69" s="6">
+      <c r="I69" s="6">
         <v>43038</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="J69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
         <v>225</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>226</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D70" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <v>9936</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <v>42894</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
         <v>132</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>133</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>270</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <v>6649</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <v>42893</v>
       </c>
-      <c r="H71" s="6">
+      <c r="I71" s="6">
         <v>43038</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>274</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>275</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <v>6411</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H72" s="6">
         <v>42993</v>
       </c>
-      <c r="H72" s="6">
+      <c r="I72" s="6">
         <v>43059</v>
       </c>
-      <c r="I72" s="6">
+      <c r="J72" s="6">
         <v>43100</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>303</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>304</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>243</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="4">
+      <c r="D73" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
         <v>6605</v>
       </c>
-      <c r="G73" s="6">
+      <c r="H73" s="6">
         <v>42906</v>
       </c>
-      <c r="H73" s="6">
+      <c r="I73" s="6">
         <v>43011</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="J73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
         <v>245</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>246</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D74" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>11327</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <v>42989</v>
       </c>
-      <c r="H74" s="6">
+      <c r="I74" s="6">
         <v>42990</v>
       </c>
-      <c r="I74" s="6">
+      <c r="J74" s="6">
         <v>42962</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>116</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>117</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>119</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D75" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>11333</v>
       </c>
-      <c r="G75" s="6">
+      <c r="H75" s="6">
         <v>42989</v>
       </c>
-      <c r="H75" s="6">
+      <c r="I75" s="6">
         <v>42990</v>
       </c>
-      <c r="I75" s="6">
+      <c r="J75" s="6">
         <v>42962</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>121</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>122</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>92</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G76" s="4">
         <v>6716</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <v>42965</v>
       </c>
-      <c r="H76" s="6">
+      <c r="I76" s="6">
         <v>42970</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="J76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
         <v>96</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>97</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>494</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G77" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="6">
         <v>43045</v>
       </c>
-      <c r="I77" s="6">
+      <c r="J77" s="6">
         <v>43084</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>496</v>
       </c>
-      <c r="K77" t="s">
-        <v>17</v>
-      </c>
       <c r="L77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>470</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G78" s="4">
         <v>11519</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <v>43033</v>
       </c>
-      <c r="H78" s="6">
+      <c r="I78" s="6">
         <v>43038</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="J78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
         <v>472</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>473</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <v>10857</v>
       </c>
-      <c r="G79" s="6">
+      <c r="H79" s="6">
         <v>42884</v>
       </c>
-      <c r="H79" s="6">
+      <c r="I79" s="6">
         <v>42885</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>67</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>68</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>239</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G80" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="6">
         <v>43041</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="J80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
         <v>241</v>
       </c>
-      <c r="K80" t="s">
-        <v>17</v>
-      </c>
       <c r="L80" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>306</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <v>8298</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <v>42843</v>
       </c>
-      <c r="H81" s="6">
+      <c r="I81" s="6">
         <v>43055</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>310</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>311</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>475</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>2.1</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <v>8722</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <v>42545</v>
       </c>
-      <c r="H82" s="6">
+      <c r="I82" s="6">
         <v>43038</v>
       </c>
-      <c r="I82" s="6">
+      <c r="J82" s="6">
         <v>42962</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>477</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>478</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <v>2.4</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>10869</v>
       </c>
-      <c r="G83" s="6">
+      <c r="H83" s="6">
         <v>42885</v>
       </c>
-      <c r="H83" s="6">
+      <c r="I83" s="6">
         <v>42887</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="J83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>77</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>78</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>170</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>4.2</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="6">
         <v>43033</v>
       </c>
-      <c r="I84" s="6">
+      <c r="J84" s="6">
         <v>43008</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>172</v>
       </c>
-      <c r="K84" t="s">
-        <v>17</v>
-      </c>
       <c r="L84" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>456</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G85" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="6">
         <v>43034</v>
       </c>
-      <c r="I85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="J85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
         <v>459</v>
       </c>
-      <c r="K85" t="s">
-        <v>17</v>
-      </c>
       <c r="L85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>396</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="D86" s="4" t="s">
         <v>397</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F86" s="4">
+      <c r="G86" s="4">
         <v>11204</v>
       </c>
-      <c r="G86" s="6">
+      <c r="H86" s="6">
         <v>42946</v>
       </c>
-      <c r="H86" s="6">
+      <c r="I86" s="6">
         <v>43038</v>
       </c>
-      <c r="I86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="J86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
         <v>398</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>399</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>489</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="D87" s="4" t="s">
         <v>490</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="4">
+      <c r="G87" s="4">
         <v>11545</v>
       </c>
-      <c r="G87" s="6">
+      <c r="H87" s="6">
         <v>43038</v>
       </c>
-      <c r="H87" s="6">
+      <c r="I87" s="6">
         <v>43045</v>
       </c>
-      <c r="I87" s="6">
+      <c r="J87" s="6">
         <v>43008</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>491</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>492</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>406</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="6">
         <v>43014</v>
       </c>
-      <c r="I88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="J88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
         <v>408</v>
       </c>
-      <c r="K88" t="s">
-        <v>17</v>
-      </c>
       <c r="L88" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>429</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="4">
+      <c r="G89" s="4">
         <v>6440</v>
       </c>
-      <c r="G89" s="6">
+      <c r="H89" s="6">
         <v>42753</v>
       </c>
-      <c r="H89" s="6">
+      <c r="I89" s="6">
         <v>42879</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="J89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="s">
         <v>431</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>432</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>434</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="4">
+      <c r="G90" s="4">
         <v>10860</v>
       </c>
-      <c r="G90" s="6">
+      <c r="H90" s="6">
         <v>42884</v>
       </c>
-      <c r="H90" s="6">
+      <c r="I90" s="6">
         <v>42885</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>431</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>437</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>283</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F91" s="4">
+      <c r="G91" s="4">
         <v>7735</v>
       </c>
-      <c r="G91" s="6">
+      <c r="H91" s="6">
         <v>42753</v>
       </c>
-      <c r="H91" s="6">
+      <c r="I91" s="6">
         <v>43056</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>285</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>286</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>410</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G92" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="6">
         <v>43033</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="J92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" t="s">
         <v>412</v>
       </c>
-      <c r="K92" t="s">
-        <v>17</v>
-      </c>
       <c r="L92" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>382</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="4">
+      <c r="G93" s="4">
         <v>6252</v>
       </c>
-      <c r="G93" s="6">
+      <c r="H93" s="6">
         <v>42905</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" t="s">
         <v>384</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>385</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>150</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F94" s="4">
+      <c r="G94" s="4">
         <v>8231</v>
       </c>
-      <c r="G94" s="6">
+      <c r="H94" s="6">
         <v>42993</v>
       </c>
-      <c r="H94" s="6">
+      <c r="I94" s="6">
         <v>43011</v>
       </c>
-      <c r="I94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="J94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
         <v>152</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>153</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>503</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G95" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="6">
         <v>43034</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="J95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" t="s">
         <v>505</v>
       </c>
-      <c r="K95" t="s">
-        <v>17</v>
-      </c>
       <c r="L95" t="s">
+        <v>17</v>
+      </c>
+      <c r="M95" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>194</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D96" s="4">
         <v>4.2</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G96" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="6">
         <v>43033</v>
       </c>
-      <c r="I96" s="6">
+      <c r="J96" s="6">
         <v>42962</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>195</v>
       </c>
-      <c r="K96" t="s">
-        <v>17</v>
-      </c>
       <c r="L96" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="4">
+      <c r="D97" s="4">
         <v>2.1</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="4">
+      <c r="G97" s="4">
         <v>9883</v>
       </c>
-      <c r="G97" s="6">
+      <c r="H97" s="6">
         <v>42885</v>
       </c>
-      <c r="H97" s="6">
+      <c r="I97" s="6">
         <v>42887</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="J97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>73</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>74</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F98" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="6">
         <v>43033</v>
       </c>
-      <c r="I98" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="J98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
         <v>168</v>
       </c>
-      <c r="K98" t="s">
-        <v>17</v>
-      </c>
       <c r="L98" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>443</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F99" s="4">
+      <c r="G99" s="4">
         <v>11196</v>
       </c>
-      <c r="G99" s="6">
+      <c r="H99" s="6">
         <v>42944</v>
       </c>
-      <c r="H99" s="6">
+      <c r="I99" s="6">
         <v>42949</v>
       </c>
-      <c r="I99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="J99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
         <v>444</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>445</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>211</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="D100" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E100" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F100" s="4">
+      <c r="G100" s="4">
         <v>7306</v>
       </c>
-      <c r="G100" s="6">
+      <c r="H100" s="6">
         <v>42947</v>
       </c>
-      <c r="H100" s="6">
+      <c r="I100" s="6">
         <v>43038</v>
       </c>
-      <c r="I100" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="J100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" t="s">
         <v>213</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>214</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>418</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="D101" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="4">
+      <c r="G101" s="4">
         <v>6679</v>
       </c>
-      <c r="G101" s="6">
+      <c r="H101" s="6">
         <v>42622</v>
       </c>
-      <c r="H101" s="6">
+      <c r="I101" s="6">
         <v>42793</v>
       </c>
-      <c r="I101" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="J101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" t="s">
         <v>421</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>422</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>461</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="6">
         <v>43034</v>
       </c>
-      <c r="I102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="J102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" t="s">
         <v>463</v>
       </c>
-      <c r="K102" t="s">
-        <v>17</v>
-      </c>
       <c r="L102" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>507</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="F103" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G103" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H103" s="6">
+      <c r="H103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="6">
         <v>43038</v>
       </c>
-      <c r="I103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="J103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" t="s">
         <v>509</v>
       </c>
-      <c r="K103" t="s">
-        <v>17</v>
-      </c>
       <c r="L103" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>257</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F104" s="4">
+      <c r="G104" s="4">
         <v>9857</v>
       </c>
-      <c r="G104" s="6">
+      <c r="H104" s="6">
         <v>42551</v>
       </c>
-      <c r="H104" s="6">
+      <c r="I104" s="6">
         <v>43045</v>
       </c>
-      <c r="I104" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="J104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" t="s">
         <v>258</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>259</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>484</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D105" s="4">
+      <c r="E105" s="4">
         <v>2.6</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F105" s="4">
+      <c r="G105" s="4">
         <v>8271</v>
       </c>
-      <c r="G105" s="6">
+      <c r="H105" s="6">
         <v>43038</v>
       </c>
-      <c r="H105" s="6">
+      <c r="I105" s="6">
         <v>43045</v>
       </c>
-      <c r="I105" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="J105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" t="s">
         <v>486</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>487</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>266</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="6">
         <v>43041</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="J106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" t="s">
         <v>268</v>
       </c>
-      <c r="K106" t="s">
-        <v>17</v>
-      </c>
       <c r="L106" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5873,7 +6006,31 @@
   <sortState ref="A7:L10">
     <sortCondition ref="A6"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C19" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="C21" r:id="rId9"/>
+    <hyperlink ref="C22" r:id="rId10"/>
+    <hyperlink ref="C23" r:id="rId11"/>
+    <hyperlink ref="C24" r:id="rId12"/>
+    <hyperlink ref="C25" r:id="rId13"/>
+    <hyperlink ref="C26" r:id="rId14"/>
+    <hyperlink ref="C28" r:id="rId15"/>
+    <hyperlink ref="C29" r:id="rId16"/>
+    <hyperlink ref="C31" r:id="rId17"/>
+    <hyperlink ref="C33" r:id="rId18"/>
+    <hyperlink ref="C34" r:id="rId19"/>
+    <hyperlink ref="C35" r:id="rId20"/>
+    <hyperlink ref="C36" r:id="rId21"/>
+    <hyperlink ref="C37" r:id="rId22"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/CM/tools_mccf.xlsx
+++ b/CM/tools_mccf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="537">
   <si>
     <t xml:space="preserve">TRM Version </t>
   </si>
@@ -673,9 +673,6 @@
   </si>
   <si>
     <t xml:space="preserve">4.7.x </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6.x </t>
   </si>
   <si>
     <t xml:space="preserve">http://fontawesome.io/ </t>
@@ -1624,12 +1621,30 @@
   <si>
     <t>EPL 2.0</t>
   </si>
+  <si>
+    <t>3.1.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.x,5.x </t>
+  </si>
+  <si>
+    <t>SIL (OFL)</t>
+  </si>
+  <si>
+    <t>VA EPMO</t>
+  </si>
+  <si>
+    <t># of Licenses</t>
+  </si>
+  <si>
+    <t>BCL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1649,6 +1664,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1681,7 +1702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1713,6 +1734,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2030,28 +2054,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="16.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="2" max="4" width="16.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2059,47 +2083,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2110,383 +2136,391 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>8242</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>42545</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>43038</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>6706</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>42549</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>43038</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>1.7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>8256</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>42545</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>43035</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>8033</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>43056</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>43045</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>43084</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>8947</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>42838</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>43059</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>42962</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="D13" s="4">
+        <v>522</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>8870</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>42888</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>42892</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>44</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6">
+        <v>43033</v>
+      </c>
+      <c r="K14" s="6">
+        <v>43035</v>
+      </c>
+      <c r="L14" t="s">
+        <v>290</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="6">
-        <v>43033</v>
-      </c>
-      <c r="J14" s="6">
-        <v>43035</v>
-      </c>
-      <c r="K14" t="s">
-        <v>291</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="4">
+        <v>11153</v>
+      </c>
+      <c r="I15" s="6">
+        <v>42944</v>
+      </c>
+      <c r="J15" s="6">
+        <v>42949</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
         <v>321</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="4">
-        <v>11153</v>
-      </c>
-      <c r="H15" s="6">
-        <v>42944</v>
-      </c>
-      <c r="I15" s="6">
-        <v>42949</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>322</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>323</v>
       </c>
-      <c r="M15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -2494,81 +2528,83 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D16" s="4">
+        <v>523</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4">
         <v>2.4</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>7842</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>42888</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>43011</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>157</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>158</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="6">
+        <v>43033</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
         <v>338</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="6">
-        <v>43033</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>339</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
       <c r="M17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>174</v>
       </c>
@@ -2576,40 +2612,41 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D18" s="4">
+        <v>525</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>8196</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>43033</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>43035</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="K18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
         <v>175</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>176</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -2617,81 +2654,83 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="E19" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="F19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>5009</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>42905</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>43011</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
         <v>162</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>163</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="H20" s="10">
+        <v>5451</v>
+      </c>
+      <c r="I20" s="11">
+        <v>42780</v>
+      </c>
+      <c r="J20" s="11">
+        <v>54013</v>
+      </c>
+      <c r="K20" s="11">
+        <v>43084</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G20" s="10">
-        <v>5451</v>
-      </c>
-      <c r="H20" s="11">
-        <v>42780</v>
-      </c>
-      <c r="I20" s="11">
-        <v>54013</v>
-      </c>
-      <c r="J20" s="11">
-        <v>43084</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="N20" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>104</v>
       </c>
@@ -2699,81 +2738,83 @@
         <v>14</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>105</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="10" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>11328</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="11">
         <v>42989</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>42990</v>
       </c>
-      <c r="J21" s="11">
+      <c r="K21" s="11">
         <v>42962</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="M21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="N21" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="G22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="4">
+        <v>7721</v>
+      </c>
+      <c r="I22" s="6">
+        <v>42828</v>
+      </c>
+      <c r="J22" s="6">
+        <v>43055</v>
+      </c>
+      <c r="K22" s="6">
+        <v>43040</v>
+      </c>
+      <c r="L22" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="4">
-        <v>7721</v>
-      </c>
-      <c r="H22" s="6">
-        <v>42828</v>
-      </c>
-      <c r="I22" s="6">
-        <v>43055</v>
-      </c>
-      <c r="J22" s="6">
-        <v>43040</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>352</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>353</v>
       </c>
-      <c r="M22" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -2781,40 +2822,41 @@
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>11518</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>42985</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>43035</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>42993</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>191</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>192</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2822,40 +2864,41 @@
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>11334</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>42989</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>42990</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>42962</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>101</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>102</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>140</v>
       </c>
@@ -2863,40 +2906,41 @@
         <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D25" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>7795</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>42907</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>43000</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="K25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
         <v>143</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>144</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2904,401 +2948,409 @@
         <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>8183</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>42949</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>43000</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="K26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s">
         <v>137</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>138</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="10">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
         <v>7</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="10">
+        <v>6460</v>
+      </c>
+      <c r="I27" s="11">
+        <v>43042</v>
+      </c>
+      <c r="J27" s="11">
+        <v>43052</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="10">
-        <v>6460</v>
-      </c>
-      <c r="H27" s="11">
-        <v>43042</v>
-      </c>
-      <c r="I27" s="11">
-        <v>43052</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="9" t="s">
+      <c r="M27" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10221</v>
+      </c>
+      <c r="I28" s="6">
+        <v>42703</v>
+      </c>
+      <c r="J28" s="6">
+        <v>42793</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
         <v>425</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="4">
-        <v>10221</v>
-      </c>
-      <c r="H28" s="6">
-        <v>42703</v>
-      </c>
-      <c r="I28" s="6">
-        <v>42793</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>426</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>427</v>
       </c>
-      <c r="M28" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H29" s="4">
+        <v>32163</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="6">
+        <v>43055</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
         <v>341</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="G29" s="4">
-        <v>32163</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="6">
-        <v>43055</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
         <v>342</v>
       </c>
-      <c r="L29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" s="4">
-        <v>59</v>
+        <v>361</v>
       </c>
       <c r="E30" s="4">
         <v>59</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="4">
+        <v>59</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6515</v>
+      </c>
+      <c r="I30" s="6">
+        <v>43007</v>
+      </c>
+      <c r="J30" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
         <v>392</v>
       </c>
-      <c r="G30" s="4">
-        <v>6515</v>
-      </c>
-      <c r="H30" s="6">
-        <v>43007</v>
-      </c>
-      <c r="I30" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>393</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>394</v>
       </c>
-      <c r="M30" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>11175</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>42944</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>42992</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="K31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>378</v>
+      </c>
+      <c r="M31" t="s">
         <v>379</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>380</v>
       </c>
-      <c r="M31" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="F32" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>10276</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>42704</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>42872</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="K32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
         <v>61</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>62</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>464</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="F33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="4">
+        <v>11520</v>
+      </c>
+      <c r="I33" s="6">
+        <v>43033</v>
+      </c>
+      <c r="J33" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
         <v>466</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="4">
-        <v>11520</v>
-      </c>
-      <c r="H33" s="6">
-        <v>43033</v>
-      </c>
-      <c r="I33" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>467</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>468</v>
       </c>
-      <c r="M33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D34" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="4">
+        <v>8967</v>
+      </c>
+      <c r="I34" s="6">
+        <v>42717</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="4">
-        <v>8967</v>
-      </c>
-      <c r="H34" s="6">
-        <v>42717</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="K34" s="6">
+        <v>43084</v>
+      </c>
+      <c r="L34" t="s">
         <v>279</v>
       </c>
-      <c r="J34" s="6">
-        <v>43084</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>280</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>281</v>
       </c>
-      <c r="M34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H35" s="7">
+        <v>32164</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="6">
+        <v>43033</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" t="s">
         <v>325</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="G35" s="7">
-        <v>32164</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="6">
-        <v>43033</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" t="s">
         <v>326</v>
       </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -3306,2700 +3358,2754 @@
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="D36" s="4">
+        <v>522</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="4">
         <v>6.4</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>5003</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>43033</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>43035</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="K36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s">
         <v>180</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>181</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="4">
+        <v>6316</v>
+      </c>
+      <c r="I37" s="6">
+        <v>42691</v>
+      </c>
+      <c r="J37" s="6">
+        <v>43055</v>
+      </c>
+      <c r="K37" s="6">
+        <v>43003</v>
+      </c>
+      <c r="L37" t="s">
         <v>345</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="4">
-        <v>6316</v>
-      </c>
-      <c r="H37" s="6">
-        <v>42691</v>
-      </c>
-      <c r="I37" s="6">
-        <v>43055</v>
-      </c>
-      <c r="J37" s="6">
-        <v>43003</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>346</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>347</v>
       </c>
-      <c r="M37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>205</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>7305</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>42794</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>43038</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>42962</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>208</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>209</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="G39" s="4">
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H39" s="4">
         <v>32159</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="I39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="6">
         <v>43045</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <v>43084</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" t="s">
         <v>255</v>
       </c>
-      <c r="L39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="G40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="4">
         <v>10913</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>42893</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <v>42899</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>83</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>84</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="4">
+        <v>8931</v>
+      </c>
+      <c r="I41" s="6">
+        <v>42717</v>
+      </c>
+      <c r="J41" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" t="s">
         <v>480</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="4">
-        <v>8931</v>
-      </c>
-      <c r="H41" s="6">
-        <v>42717</v>
-      </c>
-      <c r="I41" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>481</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>482</v>
       </c>
-      <c r="M41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="G42" s="7">
+        <v>17</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H42" s="7">
         <v>32160</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="I42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="6">
         <v>43045</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>43084</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
         <v>252</v>
       </c>
-      <c r="L42" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>7729</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <v>42704</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <v>42793</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="K43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" t="s">
         <v>56</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>57</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="4">
+        <v>10342</v>
+      </c>
+      <c r="I44" s="6">
+        <v>42712</v>
+      </c>
+      <c r="J44" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K44" s="6">
+        <v>42962</v>
+      </c>
+      <c r="L44" t="s">
         <v>218</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="4">
-        <v>10342</v>
-      </c>
-      <c r="H44" s="6">
+      <c r="M44" t="s">
+        <v>219</v>
+      </c>
+      <c r="N44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="6">
+        <v>43033</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" t="s">
+        <v>329</v>
+      </c>
+      <c r="M45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="4">
+        <v>6396</v>
+      </c>
+      <c r="I46" s="6">
         <v>42712</v>
       </c>
-      <c r="I44" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J44" s="6">
-        <v>42962</v>
-      </c>
-      <c r="K44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L44" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>328</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="6">
-        <v>43033</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" t="s">
-        <v>330</v>
-      </c>
-      <c r="L45" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2.11</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="J46" s="6">
+        <v>42793</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" t="s">
         <v>315</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="4">
-        <v>6396</v>
-      </c>
-      <c r="H46" s="6">
-        <v>42712</v>
-      </c>
-      <c r="I46" s="6">
-        <v>42793</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="M46" t="s">
         <v>316</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>317</v>
       </c>
-      <c r="M46" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>197</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>5618</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>42697</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>43038</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="K47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" t="s">
         <v>201</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>202</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="C48" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D48" s="8"/>
       <c r="E48" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>7348</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <v>42697</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>42991</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="K48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
         <v>126</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>127</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>9262</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>42684</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>42809</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="K49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" t="s">
         <v>50</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>51</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="G50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="4">
+        <v>8162</v>
+      </c>
+      <c r="I50" s="6">
+        <v>42883</v>
+      </c>
+      <c r="J50" s="6">
+        <v>43039</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" t="s">
         <v>235</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="4">
-        <v>8162</v>
-      </c>
-      <c r="H50" s="6">
-        <v>42883</v>
-      </c>
-      <c r="I50" s="6">
-        <v>43039</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
         <v>236</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>237</v>
       </c>
-      <c r="M50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H51" s="7">
+        <v>32161</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="6">
+        <v>43045</v>
+      </c>
+      <c r="K51" s="6">
+        <v>43084</v>
+      </c>
+      <c r="L51" t="s">
         <v>334</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="G51" s="7">
-        <v>32161</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="6">
-        <v>43045</v>
-      </c>
-      <c r="J51" s="6">
-        <v>43084</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="M51" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" t="s">
         <v>335</v>
       </c>
-      <c r="L51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D52" s="4">
-        <v>17.100000000000001</v>
+        <v>418</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2</v>
       </c>
       <c r="E52" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>6429</v>
       </c>
-      <c r="H52" s="6">
+      <c r="I52" s="6">
         <v>42852</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>42898</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="K52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="s">
         <v>440</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>441</v>
       </c>
-      <c r="M52" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="6">
+        <v>43033</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
         <v>388</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="6">
-        <v>43033</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" t="s">
         <v>389</v>
       </c>
-      <c r="L53" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>446</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="F54" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="4">
+        <v>8</v>
+      </c>
+      <c r="I54" s="6">
+        <v>42905</v>
+      </c>
+      <c r="J54" s="6">
+        <v>42990</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" t="s">
         <v>448</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="4">
-        <v>8</v>
-      </c>
-      <c r="H54" s="6">
-        <v>42905</v>
-      </c>
-      <c r="I54" s="6">
-        <v>42990</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="M54" t="s">
         <v>449</v>
       </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>450</v>
       </c>
-      <c r="M54" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="E55" s="4" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="4">
+        <v>110</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="4">
         <v>11329</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>42989</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>42990</v>
       </c>
-      <c r="J55" s="6">
+      <c r="K55" s="6">
         <v>42962</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>111</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>112</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>510</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="F56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="4">
+        <v>6397</v>
+      </c>
+      <c r="I56" s="6">
+        <v>42691</v>
+      </c>
+      <c r="J56" s="6">
+        <v>43055</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" t="s">
         <v>512</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="4">
-        <v>6397</v>
-      </c>
-      <c r="H56" s="6">
-        <v>42691</v>
-      </c>
-      <c r="I56" s="6">
-        <v>43055</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="M56" t="s">
         <v>513</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>514</v>
       </c>
-      <c r="M56" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>183</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <v>11497</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="6">
         <v>43033</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="6">
         <v>43035</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="K57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
         <v>186</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>187</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>11176</v>
       </c>
-      <c r="H58" s="6">
+      <c r="I58" s="6">
         <v>42944</v>
       </c>
-      <c r="I58" s="6">
+      <c r="J58" s="6">
         <v>42949</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="K58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" t="s">
         <v>89</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>90</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D59" s="4">
-        <v>4.12</v>
+        <v>361</v>
       </c>
       <c r="E59" s="4">
         <v>4.12</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>38</v>
       </c>
-      <c r="H59" s="6">
+      <c r="I59" s="6">
         <v>42941</v>
-      </c>
-      <c r="I59" s="6">
-        <v>43056</v>
       </c>
       <c r="J59" s="6">
         <v>43056</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="6">
+        <v>43056</v>
+      </c>
+      <c r="L59" t="s">
+        <v>414</v>
+      </c>
+      <c r="M59" t="s">
         <v>415</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>416</v>
       </c>
-      <c r="M59" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>367</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="F60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="4">
+        <v>11181</v>
+      </c>
+      <c r="I60" s="6">
+        <v>42944</v>
+      </c>
+      <c r="J60" s="6">
+        <v>42949</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
         <v>369</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="4">
-        <v>11181</v>
-      </c>
-      <c r="H60" s="6">
-        <v>42944</v>
-      </c>
-      <c r="I60" s="6">
-        <v>42949</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
         <v>370</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>371</v>
       </c>
-      <c r="M60" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>100</v>
+        <v>418</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>8882</v>
       </c>
-      <c r="H61" s="6">
+      <c r="I61" s="6">
         <v>42579</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>452</v>
+      </c>
+      <c r="M61" t="s">
         <v>453</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>454</v>
       </c>
-      <c r="M61" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="4">
+        <v>7402</v>
+      </c>
+      <c r="I62" s="6">
+        <v>42888</v>
+      </c>
+      <c r="J62" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K62" s="6">
+        <v>42962</v>
+      </c>
+      <c r="L62" t="s">
         <v>229</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="M62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>400</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="4">
-        <v>7402</v>
-      </c>
-      <c r="H62" s="6">
+      <c r="H63" s="4">
+        <v>6710</v>
+      </c>
+      <c r="I63" s="6">
+        <v>42620</v>
+      </c>
+      <c r="J63" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" t="s">
+        <v>402</v>
+      </c>
+      <c r="M63" t="s">
+        <v>403</v>
+      </c>
+      <c r="N63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1101</v>
+      </c>
+      <c r="I64" s="6">
+        <v>42697</v>
+      </c>
+      <c r="J64" s="6">
+        <v>43056</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L64" t="s">
+        <v>357</v>
+      </c>
+      <c r="M64" t="s">
+        <v>358</v>
+      </c>
+      <c r="N64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>497</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H65" s="4">
+        <v>8248</v>
+      </c>
+      <c r="I65" s="6">
         <v>42888</v>
       </c>
-      <c r="I62" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J62" s="6">
-        <v>42962</v>
-      </c>
-      <c r="K62" t="s">
-        <v>230</v>
-      </c>
-      <c r="L62" t="s">
-        <v>231</v>
-      </c>
-      <c r="M62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>401</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="J65" s="6">
+        <v>43045</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" t="s">
+        <v>499</v>
+      </c>
+      <c r="M65" t="s">
+        <v>500</v>
+      </c>
+      <c r="N65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G63" s="4">
-        <v>6710</v>
-      </c>
-      <c r="H63" s="6">
-        <v>42620</v>
-      </c>
-      <c r="I63" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" t="s">
-        <v>403</v>
-      </c>
-      <c r="L63" t="s">
-        <v>404</v>
-      </c>
-      <c r="M63" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>355</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1101</v>
-      </c>
-      <c r="H64" s="6">
-        <v>42697</v>
-      </c>
-      <c r="I64" s="6">
-        <v>43056</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="K64" t="s">
-        <v>358</v>
-      </c>
-      <c r="L64" t="s">
-        <v>359</v>
-      </c>
-      <c r="M64" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>498</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="G65" s="4">
-        <v>8248</v>
-      </c>
-      <c r="H65" s="6">
-        <v>42888</v>
-      </c>
-      <c r="I65" s="6">
-        <v>43045</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" t="s">
-        <v>500</v>
-      </c>
-      <c r="L65" t="s">
-        <v>501</v>
-      </c>
-      <c r="M65" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="F66" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="4">
+        <v>11126</v>
+      </c>
+      <c r="I66" s="6">
+        <v>42941</v>
+      </c>
+      <c r="J66" s="6">
+        <v>42885</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
+        <v>364</v>
+      </c>
+      <c r="M66" t="s">
+        <v>365</v>
+      </c>
+      <c r="N66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F66" s="4" t="s">
+      <c r="E67" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G66" s="4">
-        <v>11126</v>
-      </c>
-      <c r="H66" s="6">
-        <v>42941</v>
-      </c>
-      <c r="I66" s="6">
-        <v>42885</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" t="s">
-        <v>365</v>
-      </c>
-      <c r="L66" t="s">
-        <v>366</v>
-      </c>
-      <c r="M66" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>373</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="H67" s="4">
+        <v>11174</v>
+      </c>
+      <c r="I67" s="6">
+        <v>42944</v>
+      </c>
+      <c r="J67" s="6">
+        <v>42949</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" t="s">
         <v>374</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="4">
-        <v>11174</v>
-      </c>
-      <c r="H67" s="6">
-        <v>42944</v>
-      </c>
-      <c r="I67" s="6">
-        <v>42949</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="M67" t="s">
         <v>375</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>376</v>
       </c>
-      <c r="M67" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E68" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>8249</v>
       </c>
-      <c r="H68" s="6">
+      <c r="I68" s="6">
         <v>42965</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="6">
         <v>43011</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="K68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" t="s">
         <v>147</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>148</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>3.4</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="H69" s="4">
+        <v>6379</v>
+      </c>
+      <c r="I69" s="6">
+        <v>43033</v>
+      </c>
+      <c r="J69" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" t="s">
         <v>224</v>
       </c>
-      <c r="G69" s="4">
-        <v>6379</v>
-      </c>
-      <c r="H69" s="6">
-        <v>43033</v>
-      </c>
-      <c r="I69" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="M69" t="s">
         <v>225</v>
       </c>
-      <c r="L69" t="s">
+      <c r="N69" t="s">
         <v>226</v>
       </c>
-      <c r="M69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="E70" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>9936</v>
       </c>
-      <c r="H70" s="6">
+      <c r="I70" s="6">
         <v>42894</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
         <v>132</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>133</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="G71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="4">
+        <v>6649</v>
+      </c>
+      <c r="I71" s="6">
+        <v>42893</v>
+      </c>
+      <c r="J71" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G71" s="4">
-        <v>6649</v>
-      </c>
-      <c r="H71" s="6">
-        <v>42893</v>
-      </c>
-      <c r="I71" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J71" s="4" t="s">
+      <c r="L71" t="s">
         <v>273</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>274</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>275</v>
       </c>
-      <c r="M71" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="G72" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H72" s="4">
+        <v>6411</v>
+      </c>
+      <c r="I72" s="6">
+        <v>42993</v>
+      </c>
+      <c r="J72" s="6">
+        <v>43059</v>
+      </c>
+      <c r="K72" s="6">
+        <v>43100</v>
+      </c>
+      <c r="L72" t="s">
         <v>302</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="4">
-        <v>6411</v>
-      </c>
-      <c r="H72" s="6">
-        <v>42993</v>
-      </c>
-      <c r="I72" s="6">
-        <v>43059</v>
-      </c>
-      <c r="J72" s="6">
-        <v>43100</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="M72" t="s">
         <v>303</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>304</v>
       </c>
-      <c r="M72" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="4">
+      <c r="E73" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" s="4">
+        <v>6605</v>
+      </c>
+      <c r="I73" s="6">
+        <v>42906</v>
+      </c>
+      <c r="J73" s="6">
+        <v>43011</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" t="s">
         <v>244</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G73" s="4">
-        <v>6605</v>
-      </c>
-      <c r="H73" s="6">
-        <v>42906</v>
-      </c>
-      <c r="I73" s="6">
-        <v>43011</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>245</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>246</v>
       </c>
-      <c r="M73" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E74" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="4">
         <v>11327</v>
       </c>
-      <c r="H74" s="6">
+      <c r="I74" s="6">
         <v>42989</v>
       </c>
-      <c r="I74" s="6">
+      <c r="J74" s="6">
         <v>42990</v>
       </c>
-      <c r="J74" s="6">
+      <c r="K74" s="6">
         <v>42962</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>116</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>117</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>119</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="E75" s="4" t="s">
         <v>120</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <v>11333</v>
       </c>
-      <c r="H75" s="6">
+      <c r="I75" s="6">
         <v>42989</v>
       </c>
-      <c r="I75" s="6">
+      <c r="J75" s="6">
         <v>42990</v>
       </c>
-      <c r="J75" s="6">
+      <c r="K75" s="6">
         <v>42962</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>121</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>122</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>92</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H76" s="4">
         <v>6716</v>
       </c>
-      <c r="H76" s="6">
+      <c r="I76" s="6">
         <v>42965</v>
       </c>
-      <c r="I76" s="6">
+      <c r="J76" s="6">
         <v>42970</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="K76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" t="s">
         <v>96</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>97</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>493</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="F77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="6">
+        <v>43045</v>
+      </c>
+      <c r="K77" s="6">
+        <v>43084</v>
+      </c>
+      <c r="L77" t="s">
         <v>495</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="6">
-        <v>43045</v>
-      </c>
-      <c r="J77" s="6">
-        <v>43084</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="M77" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" t="s">
         <v>496</v>
       </c>
-      <c r="L77" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>469</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="F78" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H78" s="4">
+        <v>11519</v>
+      </c>
+      <c r="I78" s="6">
+        <v>43033</v>
+      </c>
+      <c r="J78" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" t="s">
         <v>471</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G78" s="4">
-        <v>11519</v>
-      </c>
-      <c r="H78" s="6">
-        <v>43033</v>
-      </c>
-      <c r="I78" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" t="s">
+      <c r="M78" t="s">
         <v>472</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>473</v>
       </c>
-      <c r="M78" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <v>10857</v>
       </c>
-      <c r="H79" s="6">
+      <c r="I79" s="6">
         <v>42884</v>
       </c>
-      <c r="I79" s="6">
+      <c r="J79" s="6">
         <v>42885</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>67</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>68</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="6">
+        <v>43041</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="6">
-        <v>43041</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" t="s">
         <v>241</v>
       </c>
-      <c r="L80" t="s">
-        <v>17</v>
-      </c>
-      <c r="M80" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="G81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="4">
+        <v>8298</v>
+      </c>
+      <c r="I81" s="6">
+        <v>42843</v>
+      </c>
+      <c r="J81" s="6">
+        <v>43055</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L81" t="s">
         <v>309</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="M81" t="s">
+        <v>310</v>
+      </c>
+      <c r="N81" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>474</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G81" s="4">
-        <v>8298</v>
-      </c>
-      <c r="H81" s="6">
-        <v>42843</v>
-      </c>
-      <c r="I81" s="6">
-        <v>43055</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K81" t="s">
-        <v>310</v>
-      </c>
-      <c r="L81" t="s">
-        <v>311</v>
-      </c>
-      <c r="M81" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>475</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="H82" s="4">
+        <v>8722</v>
+      </c>
+      <c r="I82" s="6">
+        <v>42545</v>
+      </c>
+      <c r="J82" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K82" s="6">
+        <v>42962</v>
+      </c>
+      <c r="L82" t="s">
         <v>476</v>
       </c>
-      <c r="E82" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="4">
-        <v>8722</v>
-      </c>
-      <c r="H82" s="6">
-        <v>42545</v>
-      </c>
-      <c r="I82" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J82" s="6">
-        <v>42962</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>477</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>478</v>
       </c>
-      <c r="M82" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <v>2.4</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="4">
+      <c r="H83" s="4">
         <v>10869</v>
       </c>
-      <c r="H83" s="6">
+      <c r="I83" s="6">
         <v>42885</v>
       </c>
-      <c r="I83" s="6">
+      <c r="J83" s="6">
         <v>42887</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>77</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>78</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>170</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <v>4.2</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="6">
         <v>43033</v>
       </c>
-      <c r="J84" s="6">
+      <c r="K84" s="6">
         <v>43008</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>172</v>
       </c>
-      <c r="L84" t="s">
-        <v>17</v>
-      </c>
       <c r="M84" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="F85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="H85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="6">
+        <v>43034</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" t="s">
+        <v>458</v>
+      </c>
+      <c r="M85" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>395</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H86" s="4">
+        <v>11204</v>
+      </c>
+      <c r="I86" s="6">
+        <v>42946</v>
+      </c>
+      <c r="J86" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" t="s">
+        <v>397</v>
+      </c>
+      <c r="M86" t="s">
+        <v>398</v>
+      </c>
+      <c r="N86" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>488</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="4">
+        <v>11545</v>
+      </c>
+      <c r="I87" s="6">
+        <v>43038</v>
+      </c>
+      <c r="J87" s="6">
+        <v>43045</v>
+      </c>
+      <c r="K87" s="6">
+        <v>43008</v>
+      </c>
+      <c r="L87" t="s">
+        <v>490</v>
+      </c>
+      <c r="M87" t="s">
+        <v>491</v>
+      </c>
+      <c r="N87" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>405</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="6">
-        <v>43034</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" t="s">
-        <v>459</v>
-      </c>
-      <c r="L85" t="s">
-        <v>17</v>
-      </c>
-      <c r="M85" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>396</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G86" s="4">
-        <v>11204</v>
-      </c>
-      <c r="H86" s="6">
-        <v>42946</v>
-      </c>
-      <c r="I86" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" t="s">
-        <v>398</v>
-      </c>
-      <c r="L86" t="s">
-        <v>399</v>
-      </c>
-      <c r="M86" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>489</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="G88" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="6">
+        <v>43014</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" t="s">
+        <v>407</v>
+      </c>
+      <c r="M88" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>428</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" s="4">
+        <v>6440</v>
+      </c>
+      <c r="I89" s="6">
+        <v>42753</v>
+      </c>
+      <c r="J89" s="6">
+        <v>42879</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" t="s">
+        <v>430</v>
+      </c>
+      <c r="M89" t="s">
+        <v>431</v>
+      </c>
+      <c r="N89" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>433</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="4">
-        <v>11545</v>
-      </c>
-      <c r="H87" s="6">
-        <v>43038</v>
-      </c>
-      <c r="I87" s="6">
-        <v>43045</v>
-      </c>
-      <c r="J87" s="6">
-        <v>43008</v>
-      </c>
-      <c r="K87" t="s">
-        <v>491</v>
-      </c>
-      <c r="L87" t="s">
-        <v>492</v>
-      </c>
-      <c r="M87" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>406</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="6">
-        <v>43014</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" t="s">
-        <v>408</v>
-      </c>
-      <c r="L88" t="s">
-        <v>17</v>
-      </c>
-      <c r="M88" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>429</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="H90" s="4">
+        <v>10860</v>
+      </c>
+      <c r="I90" s="6">
+        <v>42884</v>
+      </c>
+      <c r="J90" s="6">
+        <v>42885</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" t="s">
         <v>430</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G89" s="4">
-        <v>6440</v>
-      </c>
-      <c r="H89" s="6">
-        <v>42753</v>
-      </c>
-      <c r="I89" s="6">
-        <v>42879</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" t="s">
-        <v>431</v>
-      </c>
-      <c r="L89" t="s">
-        <v>432</v>
-      </c>
-      <c r="M89" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>434</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="M90" t="s">
         <v>436</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G90" s="4">
-        <v>10860</v>
-      </c>
-      <c r="H90" s="6">
-        <v>42884</v>
-      </c>
-      <c r="I90" s="6">
-        <v>42885</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K90" t="s">
-        <v>431</v>
-      </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>437</v>
       </c>
-      <c r="M90" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H91" s="4">
+        <v>7735</v>
+      </c>
+      <c r="I91" s="6">
+        <v>42753</v>
+      </c>
+      <c r="J91" s="6">
+        <v>43056</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" t="s">
         <v>284</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="M91" t="s">
+        <v>285</v>
+      </c>
+      <c r="N91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>409</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="6">
+        <v>43033</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" t="s">
+        <v>411</v>
+      </c>
+      <c r="M92" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>381</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="4">
-        <v>7735</v>
-      </c>
-      <c r="H91" s="6">
-        <v>42753</v>
-      </c>
-      <c r="I91" s="6">
-        <v>43056</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K91" t="s">
-        <v>285</v>
-      </c>
-      <c r="L91" t="s">
-        <v>286</v>
-      </c>
-      <c r="M91" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>410</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="6">
-        <v>43033</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" t="s">
-        <v>412</v>
-      </c>
-      <c r="L92" t="s">
-        <v>17</v>
-      </c>
-      <c r="M92" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>382</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="H93" s="4">
+        <v>6252</v>
+      </c>
+      <c r="I93" s="6">
+        <v>42905</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" t="s">
         <v>383</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="4">
-        <v>6252</v>
-      </c>
-      <c r="H93" s="6">
-        <v>42905</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>384</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>385</v>
       </c>
-      <c r="M93" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>150</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="G94" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="4">
+      <c r="H94" s="4">
         <v>8231</v>
       </c>
-      <c r="H94" s="6">
+      <c r="I94" s="6">
         <v>42993</v>
       </c>
-      <c r="I94" s="6">
+      <c r="J94" s="6">
         <v>43011</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" t="s">
+      <c r="K94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" t="s">
         <v>152</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>153</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>502</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="F95" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="6">
+        <v>43034</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" t="s">
         <v>504</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="6">
-        <v>43034</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
+        <v>17</v>
+      </c>
+      <c r="N95" t="s">
         <v>505</v>
       </c>
-      <c r="L95" t="s">
-        <v>17</v>
-      </c>
-      <c r="M95" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>194</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="4">
+      <c r="E96" s="4">
         <v>4.2</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H96" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="6">
         <v>43033</v>
       </c>
-      <c r="J96" s="6">
+      <c r="K96" s="6">
         <v>42962</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>195</v>
       </c>
-      <c r="L96" t="s">
-        <v>17</v>
-      </c>
       <c r="M96" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="4">
+      <c r="E97" s="4">
         <v>2.1</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="4">
+      <c r="H97" s="4">
         <v>9883</v>
       </c>
-      <c r="H97" s="6">
+      <c r="I97" s="6">
         <v>42885</v>
       </c>
-      <c r="I97" s="6">
+      <c r="J97" s="6">
         <v>42887</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="K97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>73</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>74</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G98" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="6">
         <v>43033</v>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="K98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" t="s">
         <v>168</v>
       </c>
-      <c r="L98" t="s">
-        <v>17</v>
-      </c>
       <c r="M98" t="s">
+        <v>17</v>
+      </c>
+      <c r="N98" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>442</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" s="4">
+        <v>11196</v>
+      </c>
+      <c r="I99" s="6">
+        <v>42944</v>
+      </c>
+      <c r="J99" s="6">
+        <v>42949</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" t="s">
         <v>443</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G99" s="4">
-        <v>11196</v>
-      </c>
-      <c r="H99" s="6">
-        <v>42944</v>
-      </c>
-      <c r="I99" s="6">
-        <v>42949</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99" t="s">
+      <c r="M99" t="s">
         <v>444</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99" t="s">
         <v>445</v>
       </c>
-      <c r="M99" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>211</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="E100" s="4" t="s">
         <v>212</v>
       </c>
       <c r="F100" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G100" s="4">
+      <c r="H100" s="4">
         <v>7306</v>
       </c>
-      <c r="H100" s="6">
+      <c r="I100" s="6">
         <v>42947</v>
       </c>
-      <c r="I100" s="6">
+      <c r="J100" s="6">
         <v>43038</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K100" t="s">
+      <c r="K100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" t="s">
         <v>213</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>214</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>417</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="F101" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="4">
+        <v>6679</v>
+      </c>
+      <c r="I101" s="6">
+        <v>42622</v>
+      </c>
+      <c r="J101" s="6">
+        <v>42793</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" t="s">
         <v>420</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G101" s="4">
-        <v>6679</v>
-      </c>
-      <c r="H101" s="6">
-        <v>42622</v>
-      </c>
-      <c r="I101" s="6">
-        <v>42793</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" t="s">
+      <c r="M101" t="s">
         <v>421</v>
       </c>
-      <c r="L101" t="s">
+      <c r="N101" t="s">
         <v>422</v>
       </c>
-      <c r="M101" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>460</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D102" s="4" t="s">
+      <c r="F102" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="6">
+        <v>43034</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L102" t="s">
         <v>462</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="M102" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>506</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I102" s="6">
-        <v>43034</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" t="s">
-        <v>463</v>
-      </c>
-      <c r="L102" t="s">
-        <v>17</v>
-      </c>
-      <c r="M102" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>507</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="G103" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="6">
+        <v>43038</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" t="s">
         <v>508</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" s="6">
-        <v>43038</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K103" t="s">
+      <c r="M103" t="s">
+        <v>17</v>
+      </c>
+      <c r="N103" t="s">
         <v>509</v>
       </c>
-      <c r="L103" t="s">
-        <v>17</v>
-      </c>
-      <c r="M103" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G104" s="4">
+      <c r="G104" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H104" s="4">
         <v>9857</v>
       </c>
-      <c r="H104" s="6">
+      <c r="I104" s="6">
         <v>42551</v>
       </c>
-      <c r="I104" s="6">
+      <c r="J104" s="6">
         <v>43045</v>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" t="s">
+      <c r="K104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" t="s">
+        <v>257</v>
+      </c>
+      <c r="M104" t="s">
         <v>258</v>
       </c>
-      <c r="L104" t="s">
+      <c r="N104" t="s">
         <v>259</v>
       </c>
-      <c r="M104" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>483</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="F105" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H105" s="4">
+        <v>8271</v>
+      </c>
+      <c r="I105" s="6">
+        <v>43038</v>
+      </c>
+      <c r="J105" s="6">
+        <v>43045</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" t="s">
         <v>485</v>
       </c>
-      <c r="E105" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G105" s="4">
-        <v>8271</v>
-      </c>
-      <c r="H105" s="6">
-        <v>43038</v>
-      </c>
-      <c r="I105" s="6">
-        <v>43045</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105" t="s">
+      <c r="M105" t="s">
         <v>486</v>
       </c>
-      <c r="L105" t="s">
+      <c r="N105" t="s">
         <v>487</v>
       </c>
-      <c r="M105" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="6">
+        <v>43041</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" t="s">
         <v>267</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="6">
-        <v>43041</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106" t="s">
+      <c r="M106" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" t="s">
         <v>268</v>
-      </c>
-      <c r="L106" t="s">
-        <v>17</v>
-      </c>
-      <c r="M106" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6029,8 +6135,21 @@
     <hyperlink ref="C35" r:id="rId20"/>
     <hyperlink ref="C36" r:id="rId21"/>
     <hyperlink ref="C37" r:id="rId22"/>
+    <hyperlink ref="C38" r:id="rId23"/>
+    <hyperlink ref="C39" r:id="rId24"/>
+    <hyperlink ref="C40" r:id="rId25"/>
+    <hyperlink ref="C41" r:id="rId26"/>
+    <hyperlink ref="C42" r:id="rId27"/>
+    <hyperlink ref="C44" r:id="rId28"/>
+    <hyperlink ref="C48" r:id="rId29"/>
+    <hyperlink ref="C49" r:id="rId30"/>
+    <hyperlink ref="C50" r:id="rId31"/>
+    <hyperlink ref="C51" r:id="rId32"/>
+    <hyperlink ref="C52" r:id="rId33"/>
+    <hyperlink ref="C53" r:id="rId34"/>
+    <hyperlink ref="C54" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/CM/tools_mccf.xlsx
+++ b/CM/tools_mccf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="541">
   <si>
     <t xml:space="preserve">TRM Version </t>
   </si>
@@ -1638,6 +1638,18 @@
   </si>
   <si>
     <t>BCL</t>
+  </si>
+  <si>
+    <t>EPL 1.0</t>
+  </si>
+  <si>
+    <t>ISC License</t>
+  </si>
+  <si>
+    <t>1.1.x, 1.7</t>
+  </si>
+  <si>
+    <t>3.3.x ,3.5.x</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2058,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2056,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,6 +4151,9 @@
       <c r="B55" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C55" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>110</v>
       </c>
@@ -4177,6 +4192,9 @@
       <c r="B56" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="C56" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="E56" s="4" t="s">
         <v>511</v>
       </c>
@@ -4215,6 +4233,9 @@
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C57" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="E57" s="4" t="s">
         <v>184</v>
       </c>
@@ -4222,7 +4243,7 @@
         <v>185</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H57" s="4">
         <v>11497</v>
@@ -4253,6 +4274,9 @@
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C58" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="E58" s="4" t="s">
         <v>87</v>
       </c>
@@ -4260,7 +4284,7 @@
         <v>88</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H58" s="4">
         <v>11176</v>
@@ -4291,6 +4315,9 @@
       <c r="B59" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="C59" s="8" t="s">
+        <v>537</v>
+      </c>
       <c r="E59" s="4">
         <v>4.12</v>
       </c>
@@ -4329,6 +4356,9 @@
       <c r="B60" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="C60" s="8" t="s">
+        <v>538</v>
+      </c>
       <c r="E60" s="4" t="s">
         <v>368</v>
       </c>
@@ -4336,7 +4366,7 @@
         <v>54</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H60" s="4">
         <v>11181</v>
@@ -4367,14 +4397,17 @@
       <c r="B61" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="C61" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="E61" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>100</v>
+        <v>539</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="H61" s="4">
         <v>8882</v>
@@ -4398,79 +4431,85 @@
         <v>454</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="C62" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="10">
         <v>7402</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="11">
         <v>42888</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="11">
         <v>43038</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="11">
         <v>42962</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="10">
         <v>2.8</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="10">
         <v>6710</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="11">
         <v>42620</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="11">
         <v>43038</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="K63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="9" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4481,14 +4520,17 @@
       <c r="B64" s="4" t="s">
         <v>313</v>
       </c>
+      <c r="C64" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="E64" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>142</v>
+        <v>540</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H64" s="4">
         <v>1101</v>
@@ -6148,8 +6190,17 @@
     <hyperlink ref="C52" r:id="rId33"/>
     <hyperlink ref="C53" r:id="rId34"/>
     <hyperlink ref="C54" r:id="rId35"/>
+    <hyperlink ref="C55" r:id="rId36"/>
+    <hyperlink ref="C56" r:id="rId37"/>
+    <hyperlink ref="C57" r:id="rId38"/>
+    <hyperlink ref="C58" r:id="rId39"/>
+    <hyperlink ref="C59" r:id="rId40"/>
+    <hyperlink ref="C60" r:id="rId41"/>
+    <hyperlink ref="C61" r:id="rId42"/>
+    <hyperlink ref="C62" r:id="rId43"/>
+    <hyperlink ref="C64" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/CM/tools_mccf.xlsx
+++ b/CM/tools_mccf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="542">
   <si>
     <t xml:space="preserve">TRM Version </t>
   </si>
@@ -1650,6 +1650,9 @@
   </si>
   <si>
     <t>3.3.x ,3.5.x</t>
+  </si>
+  <si>
+    <t>CPAL</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2068,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,6 +4564,9 @@
       <c r="B65" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="C65" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="E65" s="4" t="s">
         <v>301</v>
       </c>
@@ -4599,6 +4605,9 @@
       <c r="B66" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="C66" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="E66" s="4" t="s">
         <v>362</v>
       </c>
@@ -4606,7 +4615,7 @@
         <v>363</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H66" s="4">
         <v>11126</v>
@@ -4637,6 +4646,9 @@
       <c r="B67" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="C67" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="E67" s="4" t="s">
         <v>373</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>234</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H67" s="4">
         <v>11174</v>
@@ -4675,6 +4687,9 @@
       <c r="B68" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C68" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="E68" s="4" t="s">
         <v>22</v>
       </c>
@@ -4682,7 +4697,7 @@
         <v>22</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H68" s="4">
         <v>8249</v>
@@ -4751,6 +4766,9 @@
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C70" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="E70" s="4" t="s">
         <v>130</v>
       </c>
@@ -4789,6 +4807,9 @@
       <c r="B71" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C71" s="8" t="s">
+        <v>541</v>
+      </c>
       <c r="E71" s="4" t="s">
         <v>270</v>
       </c>
@@ -4796,7 +4817,7 @@
         <v>271</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H71" s="4">
         <v>6649</v>
@@ -6199,8 +6220,14 @@
     <hyperlink ref="C61" r:id="rId42"/>
     <hyperlink ref="C62" r:id="rId43"/>
     <hyperlink ref="C64" r:id="rId44"/>
+    <hyperlink ref="C65" r:id="rId45"/>
+    <hyperlink ref="C66" r:id="rId46"/>
+    <hyperlink ref="C67" r:id="rId47"/>
+    <hyperlink ref="C68" r:id="rId48"/>
+    <hyperlink ref="C70" r:id="rId49" location="license"/>
+    <hyperlink ref="C71" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>